--- a/Instances/Vehicles.xlsx
+++ b/Instances/Vehicles.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07ed5a09c14e9223/BEP/Bestanden Bilge/Instances (Synchromodal transport planning with flexible services Mathematical model and heuristic approach)/Instances/6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{BDAA8872-7A04-414F-B2EF-941768FC7AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD2A83A4-B5E8-4C76-A9D0-98BC6AFA106A}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="8_{BDAA8872-7A04-414F-B2EF-941768FC7AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26F39B5B-E1A1-4601-98C1-658D4117B959}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" tabRatio="773" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="150">
   <si>
     <t>Delta</t>
   </si>
@@ -480,6 +480,9 @@
   </si>
   <si>
     <t>curcap</t>
+  </si>
+  <si>
+    <t>Truck35</t>
   </si>
 </sst>
 </file>
@@ -860,15 +863,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA89C9B-3D6A-45B9-B7D6-07F0C8919DAB}">
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:U118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I128" sqref="I128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -912,7 +915,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -955,8 +958,28 @@
       <c r="N2">
         <v>55</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q2">
+        <f>K2/24</f>
+        <v>2.1666666666666665</v>
+      </c>
+      <c r="R2">
+        <f>MOD(K2,24)</f>
+        <v>4</v>
+      </c>
+      <c r="S2">
+        <f>MOD(L2,24)</f>
+        <v>5</v>
+      </c>
+      <c r="T2">
+        <f>MOD(M2,24)</f>
+        <v>6</v>
+      </c>
+      <c r="U2">
+        <f>MOD(N2,24)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -999,8 +1022,28 @@
       <c r="N3">
         <v>56.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q6" si="0">K3/24</f>
+        <v>2.1666666666666665</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R6" si="1">MOD(K3,24)</f>
+        <v>4</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S6" si="2">MOD(L3,24)</f>
+        <v>5</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T6" si="3">MOD(M3,24)</f>
+        <v>7.5</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3:U6" si="4">MOD(N3,24)</f>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1043,8 +1086,28 @@
       <c r="N4">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q4">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -1087,8 +1150,28 @@
       <c r="N5">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -1131,8 +1214,28 @@
       <c r="N6">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>1.0833333333333333</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -1175,8 +1278,28 @@
       <c r="N7">
         <v>45</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q7">
+        <f t="shared" ref="Q7:Q17" si="5">K7/24</f>
+        <v>1.5833333333333333</v>
+      </c>
+      <c r="R7">
+        <f t="shared" ref="R7:R17" si="6">MOD(K7,24)</f>
+        <v>14</v>
+      </c>
+      <c r="S7">
+        <f t="shared" ref="S7:S17" si="7">MOD(L7,24)</f>
+        <v>15</v>
+      </c>
+      <c r="T7">
+        <f t="shared" ref="T7:T17" si="8">MOD(M7,24)</f>
+        <v>20</v>
+      </c>
+      <c r="U7">
+        <f t="shared" ref="U7:U17" si="9">MOD(N7,24)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1219,8 +1342,28 @@
       <c r="N8">
         <v>57</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q8">
+        <f t="shared" si="5"/>
+        <v>2.0833333333333335</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -1263,8 +1406,28 @@
       <c r="N9">
         <v>69</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q9">
+        <f t="shared" si="5"/>
+        <v>2.5833333333333335</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -1307,8 +1470,28 @@
       <c r="N10">
         <v>81</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q10">
+        <f t="shared" si="5"/>
+        <v>3.0833333333333335</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -1351,8 +1534,28 @@
       <c r="N11">
         <v>93</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q11">
+        <f t="shared" si="5"/>
+        <v>3.5833333333333335</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -1395,8 +1598,28 @@
       <c r="N12">
         <v>105</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q12">
+        <f t="shared" si="5"/>
+        <v>4.083333333333333</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -1439,8 +1662,28 @@
       <c r="N13">
         <v>117</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q13">
+        <f t="shared" si="5"/>
+        <v>4.583333333333333</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -1483,8 +1726,28 @@
       <c r="N14">
         <v>129</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q14">
+        <f t="shared" si="5"/>
+        <v>5.083333333333333</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -1527,8 +1790,28 @@
       <c r="N15">
         <v>141</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q15">
+        <f t="shared" si="5"/>
+        <v>5.583333333333333</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -1571,8 +1854,28 @@
       <c r="N16">
         <v>153</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q16">
+        <f t="shared" si="5"/>
+        <v>6.083333333333333</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -1615,8 +1918,28 @@
       <c r="N17">
         <v>165</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q17">
+        <f t="shared" si="5"/>
+        <v>6.583333333333333</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -1660,7 +1983,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -1704,7 +2027,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -1748,7 +2071,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -1792,7 +2115,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -1836,7 +2159,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -1880,7 +2203,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -1924,7 +2247,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -1968,7 +2291,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -2012,7 +2335,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -2056,7 +2379,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>45</v>
       </c>
@@ -2100,7 +2423,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>46</v>
       </c>
@@ -2144,7 +2467,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>47</v>
       </c>
@@ -2188,7 +2511,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>48</v>
       </c>
@@ -2232,7 +2555,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>49</v>
       </c>
@@ -6013,6 +6336,50 @@
         <v>0</v>
       </c>
       <c r="N117">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>149</v>
+      </c>
+      <c r="B118">
+        <v>1000</v>
+      </c>
+      <c r="C118">
+        <v>1000</v>
+      </c>
+      <c r="D118">
+        <v>75</v>
+      </c>
+      <c r="E118" t="s">
+        <v>105</v>
+      </c>
+      <c r="F118" t="s">
+        <v>106</v>
+      </c>
+      <c r="G118" t="s">
+        <v>107</v>
+      </c>
+      <c r="H118">
+        <v>3</v>
+      </c>
+      <c r="I118" t="s">
+        <v>7</v>
+      </c>
+      <c r="J118" t="s">
+        <v>9</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>10000</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="N118">
         <v>10000</v>
       </c>
     </row>

--- a/Instances/Vehicles.xlsx
+++ b/Instances/Vehicles.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07ed5a09c14e9223/BEP/Bestanden Bilge/Instances (Synchromodal transport planning with flexible services Mathematical model and heuristic approach)/Instances/6/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joepl\PycharmProjects\BEP_try_3.0\Instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="8_{BDAA8872-7A04-414F-B2EF-941768FC7AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26F39B5B-E1A1-4601-98C1-658D4117B959}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2278C88A-D4F7-4BFC-AC19-11D56FC7D2BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" tabRatio="773" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -536,10 +536,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -863,15 +859,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA89C9B-3D6A-45B9-B7D6-07F0C8919DAB}">
-  <dimension ref="A1:U118"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I128" sqref="I128"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X22" sqref="X22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -915,7 +911,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -958,28 +954,8 @@
       <c r="N2">
         <v>55</v>
       </c>
-      <c r="Q2">
-        <f>K2/24</f>
-        <v>2.1666666666666665</v>
-      </c>
-      <c r="R2">
-        <f>MOD(K2,24)</f>
-        <v>4</v>
-      </c>
-      <c r="S2">
-        <f>MOD(L2,24)</f>
-        <v>5</v>
-      </c>
-      <c r="T2">
-        <f>MOD(M2,24)</f>
-        <v>6</v>
-      </c>
-      <c r="U2">
-        <f>MOD(N2,24)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -1022,28 +998,8 @@
       <c r="N3">
         <v>56.5</v>
       </c>
-      <c r="Q3">
-        <f t="shared" ref="Q3:Q6" si="0">K3/24</f>
-        <v>2.1666666666666665</v>
-      </c>
-      <c r="R3">
-        <f t="shared" ref="R3:R6" si="1">MOD(K3,24)</f>
-        <v>4</v>
-      </c>
-      <c r="S3">
-        <f t="shared" ref="S3:S6" si="2">MOD(L3,24)</f>
-        <v>5</v>
-      </c>
-      <c r="T3">
-        <f t="shared" ref="T3:T6" si="3">MOD(M3,24)</f>
-        <v>7.5</v>
-      </c>
-      <c r="U3">
-        <f t="shared" ref="U3:U6" si="4">MOD(N3,24)</f>
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1086,28 +1042,8 @@
       <c r="N4">
         <v>9</v>
       </c>
-      <c r="Q4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="R4">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="S4">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="T4">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="U4">
-        <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -1150,28 +1086,8 @@
       <c r="N5">
         <v>21</v>
       </c>
-      <c r="Q5">
-        <f t="shared" si="0"/>
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="R5">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="S5">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="T5">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="U5">
-        <f t="shared" si="4"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -1214,28 +1130,8 @@
       <c r="N6">
         <v>33</v>
       </c>
-      <c r="Q6">
-        <f t="shared" si="0"/>
-        <v>1.0833333333333333</v>
-      </c>
-      <c r="R6">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="S6">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="T6">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="U6">
-        <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -1278,28 +1174,8 @@
       <c r="N7">
         <v>45</v>
       </c>
-      <c r="Q7">
-        <f t="shared" ref="Q7:Q17" si="5">K7/24</f>
-        <v>1.5833333333333333</v>
-      </c>
-      <c r="R7">
-        <f t="shared" ref="R7:R17" si="6">MOD(K7,24)</f>
-        <v>14</v>
-      </c>
-      <c r="S7">
-        <f t="shared" ref="S7:S17" si="7">MOD(L7,24)</f>
-        <v>15</v>
-      </c>
-      <c r="T7">
-        <f t="shared" ref="T7:T17" si="8">MOD(M7,24)</f>
-        <v>20</v>
-      </c>
-      <c r="U7">
-        <f t="shared" ref="U7:U17" si="9">MOD(N7,24)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1342,28 +1218,8 @@
       <c r="N8">
         <v>57</v>
       </c>
-      <c r="Q8">
-        <f t="shared" si="5"/>
-        <v>2.0833333333333335</v>
-      </c>
-      <c r="R8">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="S8">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="T8">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="U8">
-        <f t="shared" si="9"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -1406,28 +1262,8 @@
       <c r="N9">
         <v>69</v>
       </c>
-      <c r="Q9">
-        <f t="shared" si="5"/>
-        <v>2.5833333333333335</v>
-      </c>
-      <c r="R9">
-        <f t="shared" si="6"/>
-        <v>14</v>
-      </c>
-      <c r="S9">
-        <f t="shared" si="7"/>
-        <v>15</v>
-      </c>
-      <c r="T9">
-        <f t="shared" si="8"/>
-        <v>20</v>
-      </c>
-      <c r="U9">
-        <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -1470,28 +1306,8 @@
       <c r="N10">
         <v>81</v>
       </c>
-      <c r="Q10">
-        <f t="shared" si="5"/>
-        <v>3.0833333333333335</v>
-      </c>
-      <c r="R10">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="S10">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="T10">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="U10">
-        <f t="shared" si="9"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -1534,28 +1350,8 @@
       <c r="N11">
         <v>93</v>
       </c>
-      <c r="Q11">
-        <f t="shared" si="5"/>
-        <v>3.5833333333333335</v>
-      </c>
-      <c r="R11">
-        <f t="shared" si="6"/>
-        <v>14</v>
-      </c>
-      <c r="S11">
-        <f t="shared" si="7"/>
-        <v>15</v>
-      </c>
-      <c r="T11">
-        <f t="shared" si="8"/>
-        <v>20</v>
-      </c>
-      <c r="U11">
-        <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -1598,28 +1394,8 @@
       <c r="N12">
         <v>105</v>
       </c>
-      <c r="Q12">
-        <f t="shared" si="5"/>
-        <v>4.083333333333333</v>
-      </c>
-      <c r="R12">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="S12">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="T12">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="U12">
-        <f t="shared" si="9"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -1662,28 +1438,8 @@
       <c r="N13">
         <v>117</v>
       </c>
-      <c r="Q13">
-        <f t="shared" si="5"/>
-        <v>4.583333333333333</v>
-      </c>
-      <c r="R13">
-        <f t="shared" si="6"/>
-        <v>14</v>
-      </c>
-      <c r="S13">
-        <f t="shared" si="7"/>
-        <v>15</v>
-      </c>
-      <c r="T13">
-        <f t="shared" si="8"/>
-        <v>20</v>
-      </c>
-      <c r="U13">
-        <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -1726,28 +1482,8 @@
       <c r="N14">
         <v>129</v>
       </c>
-      <c r="Q14">
-        <f t="shared" si="5"/>
-        <v>5.083333333333333</v>
-      </c>
-      <c r="R14">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="S14">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="T14">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="U14">
-        <f t="shared" si="9"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -1790,28 +1526,8 @@
       <c r="N15">
         <v>141</v>
       </c>
-      <c r="Q15">
-        <f t="shared" si="5"/>
-        <v>5.583333333333333</v>
-      </c>
-      <c r="R15">
-        <f t="shared" si="6"/>
-        <v>14</v>
-      </c>
-      <c r="S15">
-        <f t="shared" si="7"/>
-        <v>15</v>
-      </c>
-      <c r="T15">
-        <f t="shared" si="8"/>
-        <v>20</v>
-      </c>
-      <c r="U15">
-        <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -1854,28 +1570,8 @@
       <c r="N16">
         <v>153</v>
       </c>
-      <c r="Q16">
-        <f t="shared" si="5"/>
-        <v>6.083333333333333</v>
-      </c>
-      <c r="R16">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="S16">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="T16">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="U16">
-        <f t="shared" si="9"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -1918,28 +1614,8 @@
       <c r="N17">
         <v>165</v>
       </c>
-      <c r="Q17">
-        <f t="shared" si="5"/>
-        <v>6.583333333333333</v>
-      </c>
-      <c r="R17">
-        <f t="shared" si="6"/>
-        <v>14</v>
-      </c>
-      <c r="S17">
-        <f t="shared" si="7"/>
-        <v>15</v>
-      </c>
-      <c r="T17">
-        <f t="shared" si="8"/>
-        <v>20</v>
-      </c>
-      <c r="U17">
-        <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -1983,7 +1659,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -2027,7 +1703,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -2071,7 +1747,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -2115,7 +1791,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -2159,7 +1835,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -2203,7 +1879,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -2247,7 +1923,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -2291,7 +1967,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -2335,7 +2011,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -2379,7 +2055,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>45</v>
       </c>
@@ -2423,7 +2099,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>46</v>
       </c>
@@ -2467,7 +2143,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>47</v>
       </c>
@@ -2511,7 +2187,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>48</v>
       </c>
@@ -2555,7 +2231,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>49</v>
       </c>
